--- a/Users Loads37.xlsx
+++ b/Users Loads37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.330039752819075</v>
+        <v>1.544980316747408</v>
       </c>
       <c r="C2" t="n">
-        <v>5.225693951760142</v>
+        <v>6.86676254930352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3624966206708919</v>
+        <v>0.3644367224954216</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.241164616963056</v>
+        <v>3.831280865411461</v>
       </c>
       <c r="C3" t="n">
-        <v>6.100544882056999</v>
+        <v>1.950717946524155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7044662673407078</v>
+        <v>0.3162575504973723</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.411724570454043</v>
+        <v>6.429665394968044</v>
       </c>
       <c r="C4" t="n">
-        <v>7.201605268573</v>
+        <v>3.504543068054611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6063456363912861</v>
+        <v>0.3268591321286358</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.69692239063538</v>
+        <v>7.269686110168726</v>
       </c>
       <c r="C5" t="n">
-        <v>2.378074613907888</v>
+        <v>10.27585520416362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3248358257628137</v>
+        <v>0.4765889838384171</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.576644130903709</v>
+        <v>8.201026164251651</v>
       </c>
       <c r="C6" t="n">
-        <v>2.177233529663033</v>
+        <v>4.479335480805395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.388713908581356</v>
+        <v>0.07270861129031886</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.19398391663333</v>
+        <v>10.57499949525755</v>
       </c>
       <c r="C7" t="n">
-        <v>6.20489611293088</v>
+        <v>10.0283787213407</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5789232539973547</v>
+        <v>0.2254333055046017</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.00643698050327</v>
+        <v>10.83456178137682</v>
       </c>
       <c r="C8" t="n">
-        <v>1.598997493993394</v>
+        <v>10.3657065302169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2884709726697345</v>
+        <v>0.3261720398712445</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.12508970212646</v>
+        <v>11.23094531496357</v>
       </c>
       <c r="C9" t="n">
-        <v>3.231979818742901</v>
+        <v>8.425281253103092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273921012351637</v>
+        <v>0.4450104157212572</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.71963138862051</v>
+        <v>12.97413078332409</v>
       </c>
       <c r="C10" t="n">
-        <v>5.457453446810823</v>
+        <v>9.154372486332297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3641315430809181</v>
+        <v>0.5037440713291443</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.10269938069018</v>
+        <v>13.54664878204631</v>
       </c>
       <c r="C11" t="n">
-        <v>4.182982179173823</v>
+        <v>7.244378549995161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4391622158502091</v>
+        <v>0.3965441495492412</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.38379890552195</v>
+        <v>14.39266784590064</v>
       </c>
       <c r="C12" t="n">
-        <v>3.767959513624792</v>
+        <v>9.425295021221055</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6261529604573446</v>
+        <v>0.3136544282744531</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.49989442851998</v>
+        <v>14.94142834267681</v>
       </c>
       <c r="C13" t="n">
-        <v>6.35776622041397</v>
+        <v>12.14929210939959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6435134910497211</v>
+        <v>0.259107157619748</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.9674760855787</v>
+        <v>15.80020168688101</v>
       </c>
       <c r="C14" t="n">
-        <v>1.103064454257562</v>
+        <v>7.454097089100859</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2782200320671581</v>
+        <v>0.3596141812573913</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35.01274336161353</v>
+        <v>16.00851040643039</v>
       </c>
       <c r="C15" t="n">
-        <v>4.206701426949997</v>
+        <v>5.070337929725086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2932774054858224</v>
+        <v>0.3385502891614018</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.12786919590961</v>
+        <v>23.68807458007721</v>
       </c>
       <c r="C16" t="n">
-        <v>5.725280821675037</v>
+        <v>2.629972134090708</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5997584699757169</v>
+        <v>0.4419241717517934</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.60991874108752</v>
+        <v>27.72416160122677</v>
       </c>
       <c r="C17" t="n">
-        <v>8.556620553175742</v>
+        <v>4.574855980161045</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7529148084013044</v>
+        <v>0.1766204632143659</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.67228389952784</v>
+        <v>29.46084561329117</v>
       </c>
       <c r="C18" t="n">
-        <v>3.899917179828912</v>
+        <v>6.34750718472964</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5311508065554587</v>
+        <v>0.2928287452789782</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.25110002646565</v>
+        <v>31.60208960550924</v>
       </c>
       <c r="C19" t="n">
-        <v>3.608085538434999</v>
+        <v>2.303324223296186</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3294682394570314</v>
+        <v>0.2736507320835925</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.73401418397953</v>
+        <v>32.99315184678982</v>
       </c>
       <c r="C20" t="n">
-        <v>5.876822086058731</v>
+        <v>5.74426029281828</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6946043949091163</v>
+        <v>0.4391810489871426</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>47.12667978888972</v>
+        <v>38.06580449424434</v>
       </c>
       <c r="C21" t="n">
-        <v>5.547180231602882</v>
+        <v>7.469818072101941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2896333821782496</v>
+        <v>0.4006112338370554</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.00578934118055</v>
+        <v>40.3399765718673</v>
       </c>
       <c r="C22" t="n">
-        <v>2.111050536638197</v>
+        <v>10.80177640397956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1906200704125608</v>
+        <v>0.4011462235920872</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>51.11483765239502</v>
+        <v>40.37373718621435</v>
       </c>
       <c r="C23" t="n">
-        <v>5.357499374782589</v>
+        <v>4.588168823523216</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3999115857259591</v>
+        <v>0.2533197120128846</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>51.41640816456268</v>
+        <v>41.04059076197027</v>
       </c>
       <c r="C24" t="n">
-        <v>4.023660372778009</v>
+        <v>5.802603517274036</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4585837502064187</v>
+        <v>0.484812522708932</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.52178529077256</v>
+        <v>42.13920506587948</v>
       </c>
       <c r="C25" t="n">
-        <v>5.968942529678941</v>
+        <v>6.297712411182865</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4162581507467186</v>
+        <v>0.2333653029251783</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54.3862072146289</v>
+        <v>42.16911071793339</v>
       </c>
       <c r="C26" t="n">
-        <v>5.895140027287726</v>
+        <v>7.57016633389415</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6356195416270614</v>
+        <v>0.4343481839159654</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.57794572253356</v>
+        <v>43.51451832428538</v>
       </c>
       <c r="C27" t="n">
-        <v>2.158156595936113</v>
+        <v>1.391823011936882</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3517431387945597</v>
+        <v>0.1649099096245734</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.51705221822331</v>
+        <v>43.67201355429995</v>
       </c>
       <c r="C28" t="n">
-        <v>3.090511298493972</v>
+        <v>5.575678929745554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4266946262481957</v>
+        <v>0.3167272162568531</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59.08226031202033</v>
+        <v>47.23160760964704</v>
       </c>
       <c r="C29" t="n">
-        <v>4.067622658223528</v>
+        <v>5.037940506386185</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4846487694552334</v>
+        <v>0.1747182997935385</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.1317705587547</v>
+        <v>49.76220711470757</v>
       </c>
       <c r="C30" t="n">
-        <v>5.226738588912183</v>
+        <v>4.681979678798008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5860913056765464</v>
+        <v>0.3685171341532826</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.59165695248786</v>
+        <v>52.81700867667762</v>
       </c>
       <c r="C31" t="n">
-        <v>4.176273705739805</v>
+        <v>8.25339910049318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5487367515905988</v>
+        <v>0.3156111377998286</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.30545662558371</v>
+        <v>57.38481985170372</v>
       </c>
       <c r="C32" t="n">
-        <v>4.550995281589927</v>
+        <v>6.226892358625991</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3386780308305323</v>
+        <v>0.1602293672015526</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63.43825045490765</v>
+        <v>62.47454224640119</v>
       </c>
       <c r="C33" t="n">
-        <v>4.756496585114745</v>
+        <v>4.017554352513008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7582307711133588</v>
+        <v>0.2475842874905581</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.60363506047663</v>
+        <v>63.1359781402728</v>
       </c>
       <c r="C34" t="n">
-        <v>5.577841094665069</v>
+        <v>3.847240142695312</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7607138506867501</v>
+        <v>0.3641734560947129</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.39572773251443</v>
+        <v>63.92922427265702</v>
       </c>
       <c r="C35" t="n">
-        <v>4.652967388960771</v>
+        <v>4.893296615131952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.67414241070487</v>
+        <v>0.1512289517652328</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>71.60323621135215</v>
+        <v>63.94030168035091</v>
       </c>
       <c r="C36" t="n">
-        <v>7.178900675296362</v>
+        <v>5.421987803397015</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6919360242552851</v>
+        <v>0.15485434331586</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74.65827607934827</v>
+        <v>68.14656561211218</v>
       </c>
       <c r="C37" t="n">
-        <v>6.995742873030064</v>
+        <v>13.22695078881117</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7488138530164606</v>
+        <v>0.2904885786904932</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>74.81284686868729</v>
+        <v>70.94486736385976</v>
       </c>
       <c r="C38" t="n">
-        <v>5.143495565206297</v>
+        <v>4.013735753902317</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3241525907536122</v>
+        <v>0.1689296847075247</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>75.30685761935878</v>
+        <v>71.19194662457122</v>
       </c>
       <c r="C39" t="n">
-        <v>3.486826052363039</v>
+        <v>10.73960845972079</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3666113805969519</v>
+        <v>0.3340334375894475</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>75.97538342801747</v>
+        <v>71.48295976691124</v>
       </c>
       <c r="C40" t="n">
-        <v>7.717028441295342</v>
+        <v>6.207717097863986</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5960604099573779</v>
+        <v>0.5114993753167597</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77.10247225787568</v>
+        <v>73.64355284419571</v>
       </c>
       <c r="C41" t="n">
-        <v>2.64247148021981</v>
+        <v>7.202163986162057</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4087304746790454</v>
+        <v>0.1770488107516146</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.241556585938</v>
+        <v>75.13951730112467</v>
       </c>
       <c r="C42" t="n">
-        <v>5.904247107769709</v>
+        <v>4.995257262382911</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5249175233956527</v>
+        <v>0.3641078006113884</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>77.51572663255983</v>
+        <v>75.22285217669348</v>
       </c>
       <c r="C43" t="n">
-        <v>5.450326980610284</v>
+        <v>6.825453730610984</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7457885359230845</v>
+        <v>0.4539342361253993</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>81.40849211765614</v>
+        <v>75.7327716880055</v>
       </c>
       <c r="C44" t="n">
-        <v>6.08791422823368</v>
+        <v>3.483156946358522</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5971020183819845</v>
+        <v>0.2605950474001671</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83.10538368784226</v>
+        <v>76.4937900612946</v>
       </c>
       <c r="C45" t="n">
-        <v>6.067617761451796</v>
+        <v>2.248643878161143</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4473187917613943</v>
+        <v>0.1684841110986813</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83.81625367294471</v>
+        <v>76.94040150519551</v>
       </c>
       <c r="C46" t="n">
-        <v>2.612983565553326</v>
+        <v>5.681178255061339</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2118428299201555</v>
+        <v>0.1924233703323319</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85.6667335205955</v>
+        <v>77.73959333018695</v>
       </c>
       <c r="C47" t="n">
-        <v>5.619421815557354</v>
+        <v>6.566928344840817</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7120261634012489</v>
+        <v>0.2882438158694063</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87.9994820640799</v>
+        <v>78.55187535298148</v>
       </c>
       <c r="C48" t="n">
-        <v>4.952796803730739</v>
+        <v>4.419517394600299</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2497905764045169</v>
+        <v>0.1009281509786034</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>88.22442071188091</v>
+        <v>79.23302284632386</v>
       </c>
       <c r="C49" t="n">
-        <v>3.781050996140908</v>
+        <v>7.779453545033725</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3336580502055985</v>
+        <v>0.4715775145352027</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>91.81551774501835</v>
+        <v>81.55021290463674</v>
       </c>
       <c r="C50" t="n">
-        <v>1.690605701681204</v>
+        <v>13.66891840741803</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2292385546006185</v>
+        <v>0.2763729393639068</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>92.40254021242974</v>
+        <v>85.74064320056776</v>
       </c>
       <c r="C51" t="n">
-        <v>7.590275821890302</v>
+        <v>6.970726387345792</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3342187534303682</v>
+        <v>0.4509438091587586</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>94.48879923557591</v>
+        <v>89.14545095999485</v>
       </c>
       <c r="C52" t="n">
-        <v>3.231189285631251</v>
+        <v>9.849588575994993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6051795064040784</v>
+        <v>0.465543040083724</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,97 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>96.86370735412694</v>
+        <v>89.58494029668941</v>
       </c>
       <c r="C53" t="n">
-        <v>3.065125886405821</v>
+        <v>7.375291471533125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7129497531906327</v>
+        <v>0.3848981083860228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>94.7063218580974</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.971605045621442</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3456471090593382</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96.05248213573093</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.201848912652274</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5795711998767099</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>98.04086959591393</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.687995252470976</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4387299171901498</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>98.42020142694751</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.89499501616148</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4242084671186639</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>99.44767940872428</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.701716566501312</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5279201860832713</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>99.97122813223787</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10.62120113248827</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4286642951985921</v>
       </c>
     </row>
   </sheetData>
